--- a/disgenet_data.xlsx
+++ b/disgenet_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27224"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="42240" windowHeight="19180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="42240" windowHeight="19180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="disgenet_data" sheetId="1" r:id="rId1"/>
+    <sheet name="uniprotId" sheetId="2" r:id="rId2"/>
+    <sheet name="list of proteins" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="75">
   <si>
     <t>C0030567</t>
   </si>
@@ -582,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V8"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="N1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView showRuler="0" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,4 +1160,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView showRuler="0" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>